--- a/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_15_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_15_8.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9307447923530864</v>
+        <v>0.944711815343534</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7595797585837274</v>
+        <v>0.7824107355741019</v>
       </c>
       <c r="D2" t="n">
-        <v>0.635537111227676</v>
+        <v>0.8705084118893622</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9798065524665706</v>
+        <v>0.9909437684404786</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8595069180043563</v>
+        <v>0.902105677525717</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4631098924258207</v>
+        <v>0.3697123453764699</v>
       </c>
       <c r="H2" t="n">
-        <v>1.607691261384035</v>
+        <v>1.455020413122418</v>
       </c>
       <c r="I2" t="n">
-        <v>1.326968123939012</v>
+        <v>1.465127216545249</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1358988893839571</v>
+        <v>0.03520124582696638</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7314335066614847</v>
+        <v>0.7501642311861078</v>
       </c>
       <c r="L2" t="n">
-        <v>0.880651368629576</v>
+        <v>1.251800372860988</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6805217795381869</v>
+        <v>0.6080397564111</v>
       </c>
       <c r="N2" t="n">
-        <v>1.184680553725103</v>
+        <v>1.147435159083909</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7094930005674143</v>
+        <v>0.6339252676573349</v>
       </c>
       <c r="P2" t="n">
-        <v>67.53958180881351</v>
+        <v>67.99006004127872</v>
       </c>
       <c r="Q2" t="n">
-        <v>107.7624840294641</v>
+        <v>108.2129622619293</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9308726648088895</v>
+        <v>0.9448709500352869</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7590018622938434</v>
+        <v>0.782381210483346</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6279043618638629</v>
+        <v>0.8697968313377653</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9804954393668325</v>
+        <v>0.9905729048211751</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8572832308315459</v>
+        <v>0.9014862933577007</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4622548087250664</v>
+        <v>0.3686482109599706</v>
       </c>
       <c r="H3" t="n">
-        <v>1.611555656535457</v>
+        <v>1.455217847540253</v>
       </c>
       <c r="I3" t="n">
-        <v>1.354758100410726</v>
+        <v>1.473178365257845</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1312627833153042</v>
+        <v>0.03664277935507664</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7430104418630152</v>
+        <v>0.7549105723064606</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8737913555127714</v>
+        <v>1.251269724978733</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6798932333279001</v>
+        <v>0.6071640725207401</v>
       </c>
       <c r="N3" t="n">
-        <v>1.184339560509628</v>
+        <v>1.147010799905902</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7088376958436855</v>
+        <v>0.6330123040908469</v>
       </c>
       <c r="P3" t="n">
-        <v>67.54327801180492</v>
+        <v>67.99582489501657</v>
       </c>
       <c r="Q3" t="n">
-        <v>107.7661802324555</v>
+        <v>108.2187271156672</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.930974050018301</v>
+        <v>0.945022377616159</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7584067748340696</v>
+        <v>0.7823460637293149</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6202391526223772</v>
+        <v>0.8690876313699702</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9811223669134683</v>
+        <v>0.9901936652723631</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8550081471410494</v>
+        <v>0.900866542367354</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4615768453628954</v>
+        <v>0.3676356140294187</v>
       </c>
       <c r="H4" t="n">
-        <v>1.61553500911909</v>
+        <v>1.455452874046294</v>
       </c>
       <c r="I4" t="n">
-        <v>1.382666259622866</v>
+        <v>1.4812025789535</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1270436544532823</v>
+        <v>0.03811686981944922</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7548549570380739</v>
+        <v>0.7596597243864747</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8669981515240088</v>
+        <v>1.250789511959935</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6793944696293129</v>
+        <v>0.606329624898387</v>
       </c>
       <c r="N4" t="n">
-        <v>1.184069199951197</v>
+        <v>1.146606993023576</v>
       </c>
       <c r="O4" t="n">
-        <v>0.7083176987418663</v>
+        <v>0.6321423323056655</v>
       </c>
       <c r="P4" t="n">
-        <v>67.54621345347711</v>
+        <v>68.00132602126486</v>
       </c>
       <c r="Q4" t="n">
-        <v>107.7691156741277</v>
+        <v>108.2242282419155</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9310499806155259</v>
+        <v>0.9451660212718745</v>
       </c>
       <c r="C5" t="n">
-        <v>0.757795229279415</v>
+        <v>0.7823054693327156</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6125440582316738</v>
+        <v>0.8683807797437805</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9816895579155915</v>
+        <v>0.9898063735087272</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8526840039081132</v>
+        <v>0.9002464828519672</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4610690971096247</v>
+        <v>0.366675068242231</v>
       </c>
       <c r="H5" t="n">
-        <v>1.619624417058974</v>
+        <v>1.455724328963274</v>
       </c>
       <c r="I5" t="n">
-        <v>1.410683227280563</v>
+        <v>1.489200222435215</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1232265436241627</v>
+        <v>0.03962225895276608</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7669548854523631</v>
+        <v>0.7644112406939907</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8602711392231225</v>
+        <v>1.250345779592671</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6790206897507798</v>
+        <v>0.6055370081524588</v>
       </c>
       <c r="N5" t="n">
-        <v>1.183866718358598</v>
+        <v>1.146223943275001</v>
       </c>
       <c r="O5" t="n">
-        <v>0.707928006280073</v>
+        <v>0.6313159722239202</v>
       </c>
       <c r="P5" t="n">
-        <v>67.54841472389366</v>
+        <v>68.00655839147677</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.7713169445443</v>
+        <v>108.2294606121274</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9311010277222982</v>
+        <v>0.9453020938588728</v>
       </c>
       <c r="C6" t="n">
-        <v>0.75716788686404</v>
+        <v>0.7822596111643142</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6048211445956415</v>
+        <v>0.8676755216076901</v>
       </c>
       <c r="E6" t="n">
-        <v>0.982198896136333</v>
+        <v>0.9894114073765184</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8503127410515462</v>
+        <v>0.8996256533694805</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4607277448715885</v>
+        <v>0.3657651502264171</v>
       </c>
       <c r="H6" t="n">
-        <v>1.623819458679232</v>
+        <v>1.456030982746532</v>
       </c>
       <c r="I6" t="n">
-        <v>1.438801481661603</v>
+        <v>1.497179836439122</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1197987733830989</v>
+        <v>0.0411574780802618</v>
       </c>
       <c r="K6" t="n">
-        <v>0.779300127522351</v>
+        <v>0.7691686572596921</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8536118133898354</v>
+        <v>1.249947701245708</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6787692869242011</v>
+        <v>0.6047852099931157</v>
       </c>
       <c r="N6" t="n">
-        <v>1.183730592740538</v>
+        <v>1.145861083043006</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7076659007146913</v>
+        <v>0.6305321684604972</v>
       </c>
       <c r="P6" t="n">
-        <v>67.54989597111904</v>
+        <v>68.01152763516916</v>
       </c>
       <c r="Q6" t="n">
-        <v>107.7727981917697</v>
+        <v>108.2344298558198</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9311282218332538</v>
+        <v>0.9454306173363608</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7565253767820861</v>
+        <v>0.7822086636253645</v>
       </c>
       <c r="D7" t="n">
-        <v>0.597073102843457</v>
+        <v>0.8669721205891056</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9826526904570316</v>
+        <v>0.9890089863490735</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8478967918795488</v>
+        <v>0.8990043042060835</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4605458977264106</v>
+        <v>0.3649057131406581</v>
       </c>
       <c r="H7" t="n">
-        <v>1.628115926555745</v>
+        <v>1.45637166917408</v>
       </c>
       <c r="I7" t="n">
-        <v>1.467011224669265</v>
+        <v>1.505138438163842</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1167448053031266</v>
+        <v>0.04272167411698228</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7918780149861958</v>
+        <v>0.7739300561404121</v>
       </c>
       <c r="L7" t="n">
-        <v>0.847017898337637</v>
+        <v>1.249591424221699</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6786353201288676</v>
+        <v>0.6040742612797354</v>
       </c>
       <c r="N7" t="n">
-        <v>1.183658075111323</v>
+        <v>1.145518353769704</v>
       </c>
       <c r="O7" t="n">
-        <v>0.707526230675531</v>
+        <v>0.6297909531885215</v>
       </c>
       <c r="P7" t="n">
-        <v>67.5506855178471</v>
+        <v>68.01623255786525</v>
       </c>
       <c r="Q7" t="n">
-        <v>107.7735877384977</v>
+        <v>108.2391347785159</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9311322410670303</v>
+        <v>0.9455517379457999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7558684006856863</v>
+        <v>0.7821527379740818</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5893025579496725</v>
+        <v>0.8662696874908956</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9830525959964148</v>
+        <v>0.9885994837481749</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8454381440205214</v>
+        <v>0.8983818735912295</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4605190210916401</v>
+        <v>0.3640957790676294</v>
       </c>
       <c r="H8" t="n">
-        <v>1.632509128737467</v>
+        <v>1.456745644261722</v>
       </c>
       <c r="I8" t="n">
-        <v>1.49530289906833</v>
+        <v>1.513086088393526</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1140535006821251</v>
+        <v>0.04431339597460909</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8046781998752277</v>
+        <v>0.7786997421840673</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8404849804767909</v>
+        <v>1.249280790059072</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6786155178682846</v>
+        <v>0.6034034960684512</v>
       </c>
       <c r="N8" t="n">
-        <v>1.183647357154586</v>
+        <v>1.145195365477867</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7075055853917185</v>
+        <v>0.6290916321135176</v>
       </c>
       <c r="P8" t="n">
-        <v>67.55080223767533</v>
+        <v>68.02067663330233</v>
       </c>
       <c r="Q8" t="n">
-        <v>107.773704458326</v>
+        <v>108.243578853953</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9311138601650909</v>
+        <v>0.9456654418684908</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7551975612670512</v>
+        <v>0.782091946407604</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5815112738377775</v>
+        <v>0.8655680541248179</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9834007073474226</v>
+        <v>0.9881830299469836</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8429387680660672</v>
+        <v>0.8977582704246275</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4606419342675456</v>
+        <v>0.3633354404130378</v>
       </c>
       <c r="H9" t="n">
-        <v>1.636995035018812</v>
+        <v>1.457152157746678</v>
       </c>
       <c r="I9" t="n">
-        <v>1.523670082613033</v>
+        <v>1.521024690087085</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1117107632220858</v>
+        <v>0.04593213689735995</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8176904229175592</v>
+        <v>0.7834784134922224</v>
       </c>
       <c r="L9" t="n">
-        <v>0.8340192626391685</v>
+        <v>1.249010742925958</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6787060735454969</v>
+        <v>0.6027731251582454</v>
       </c>
       <c r="N9" t="n">
-        <v>1.183696372893091</v>
+        <v>1.144892155017358</v>
       </c>
       <c r="O9" t="n">
-        <v>0.707599996211586</v>
+        <v>0.6284344250086167</v>
       </c>
       <c r="P9" t="n">
-        <v>67.5502685060797</v>
+        <v>68.02485758628387</v>
       </c>
       <c r="Q9" t="n">
-        <v>107.7731707267303</v>
+        <v>108.2477598069345</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9310737318130567</v>
+        <v>0.9457719207531219</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7545134538536291</v>
+        <v>0.7820263897200447</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5737018116674699</v>
+        <v>0.8648670930911733</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9836985918919841</v>
+        <v>0.98776019785474</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8404005726234194</v>
+        <v>0.8971335459537599</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4609102727423719</v>
+        <v>0.3626234156212193</v>
       </c>
       <c r="H10" t="n">
-        <v>1.64156966444239</v>
+        <v>1.457590535618248</v>
       </c>
       <c r="I10" t="n">
-        <v>1.552103450410815</v>
+        <v>1.528955684703144</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1097060446764517</v>
+        <v>0.04757567000765787</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8309047475436333</v>
+        <v>0.7882656773554011</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8276164609944988</v>
+        <v>1.248785714070594</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6789037286260636</v>
+        <v>0.6021822113125057</v>
       </c>
       <c r="N10" t="n">
-        <v>1.183803381831849</v>
+        <v>1.144608211325008</v>
       </c>
       <c r="O10" t="n">
-        <v>0.7078060658781348</v>
+        <v>0.6278183547371036</v>
       </c>
       <c r="P10" t="n">
-        <v>67.54910378212648</v>
+        <v>68.02878081148717</v>
       </c>
       <c r="Q10" t="n">
-        <v>107.7720060027771</v>
+        <v>108.2516830321378</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9310126741549298</v>
+        <v>0.9458711826516039</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7538166777725672</v>
+        <v>0.7819562378633342</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5658760789129531</v>
+        <v>0.8641664100628863</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9839481983878813</v>
+        <v>0.9873310811146414</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8378254842215301</v>
+        <v>0.8965074328153593</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4613185655834111</v>
+        <v>0.3619596508490113</v>
       </c>
       <c r="H11" t="n">
-        <v>1.64622900930481</v>
+        <v>1.458059641407091</v>
       </c>
       <c r="I11" t="n">
-        <v>1.580596057564012</v>
+        <v>1.536883533839084</v>
       </c>
       <c r="J11" t="n">
-        <v>0.108026230196072</v>
+        <v>0.04924363131776779</v>
       </c>
       <c r="K11" t="n">
-        <v>0.844311143880042</v>
+        <v>0.7930635825784259</v>
       </c>
       <c r="L11" t="n">
-        <v>0.821276431549689</v>
+        <v>1.24860617400588</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6792043621645927</v>
+        <v>0.601630826046182</v>
       </c>
       <c r="N11" t="n">
-        <v>1.18396620225352</v>
+        <v>1.144343512929056</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7081194980087961</v>
+        <v>0.6272434958584676</v>
       </c>
       <c r="P11" t="n">
-        <v>67.54733288600723</v>
+        <v>68.0324450702235</v>
       </c>
       <c r="Q11" t="n">
-        <v>107.7702351066579</v>
+        <v>108.2553472908741</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9309313296768774</v>
+        <v>0.9459632780845748</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7531077874970148</v>
+        <v>0.7818815629074185</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5580367292243588</v>
+        <v>0.8634654751712674</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9841511529069079</v>
+        <v>0.9868958417188411</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8352154817418072</v>
+        <v>0.8958795809168094</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4618625164827044</v>
+        <v>0.3613438082646737</v>
       </c>
       <c r="H12" t="n">
-        <v>1.650969361841569</v>
+        <v>1.458558993181145</v>
       </c>
       <c r="I12" t="n">
-        <v>1.609138242432866</v>
+        <v>1.544814232672275</v>
       </c>
       <c r="J12" t="n">
-        <v>0.106660376560356</v>
+        <v>0.050935391170025</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8578993094966108</v>
+        <v>0.7978748119211502</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8150000912575714</v>
+        <v>1.248469317507654</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6796046766192125</v>
+        <v>0.6011187971313772</v>
       </c>
       <c r="N12" t="n">
-        <v>1.18418312086166</v>
+        <v>1.144097925107801</v>
       </c>
       <c r="O12" t="n">
-        <v>0.7085368546785143</v>
+        <v>0.6267096688127135</v>
       </c>
       <c r="P12" t="n">
-        <v>67.54497603111577</v>
+        <v>68.03585079281693</v>
       </c>
       <c r="Q12" t="n">
-        <v>107.7678782517664</v>
+        <v>108.2587530134676</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9308303546216263</v>
+        <v>0.9460483909886407</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7523873269001359</v>
+        <v>0.7818024534403785</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5501852194610886</v>
+        <v>0.8627644309003395</v>
       </c>
       <c r="E13" t="n">
-        <v>0.984309141186516</v>
+        <v>0.9864549854982776</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8325721641487196</v>
+        <v>0.8952502237356021</v>
       </c>
       <c r="G13" t="n">
-        <v>0.462537737142116</v>
+        <v>0.3607746578832763</v>
       </c>
       <c r="H13" t="n">
-        <v>1.655787085170314</v>
+        <v>1.459087998551508</v>
       </c>
       <c r="I13" t="n">
-        <v>1.637724700757197</v>
+        <v>1.552746169073133</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1055971390077351</v>
+        <v>0.05264898341779492</v>
       </c>
       <c r="K13" t="n">
-        <v>0.871660919882466</v>
+        <v>0.8026975762454638</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8087846064769724</v>
+        <v>1.248374841692796</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6801012697695219</v>
+        <v>0.6006452013320978</v>
       </c>
       <c r="N13" t="n">
-        <v>1.184452387675663</v>
+        <v>1.143870957363625</v>
       </c>
       <c r="O13" t="n">
-        <v>0.7090545888273219</v>
+        <v>0.6262159110597804</v>
       </c>
       <c r="P13" t="n">
-        <v>67.54205426307492</v>
+        <v>68.03900346388647</v>
       </c>
       <c r="Q13" t="n">
-        <v>107.7649564837255</v>
+        <v>108.2619056845371</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9307105222332699</v>
+        <v>0.9461264296552203</v>
       </c>
       <c r="C14" t="n">
-        <v>0.75165586891917</v>
+        <v>0.7817190577400857</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5423238529010977</v>
+        <v>0.8620624795005754</v>
       </c>
       <c r="E14" t="n">
-        <v>0.984423791272791</v>
+        <v>0.9860083082581318</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8298973890853948</v>
+        <v>0.8946187205434697</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4633390568748329</v>
+        <v>0.3602528129605239</v>
       </c>
       <c r="H14" t="n">
-        <v>1.660678348057087</v>
+        <v>1.459645665983368</v>
       </c>
       <c r="I14" t="n">
-        <v>1.666347046562683</v>
+        <v>1.56068836914568</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1048255610309308</v>
+        <v>0.05438520175898252</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8855863037968069</v>
+        <v>0.8075367854523313</v>
       </c>
       <c r="L14" t="n">
-        <v>0.802627700320354</v>
+        <v>1.248321221836388</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6806901327879176</v>
+        <v>0.600210640492589</v>
       </c>
       <c r="N14" t="n">
-        <v>1.18477194071128</v>
+        <v>1.143662854252746</v>
       </c>
       <c r="O14" t="n">
-        <v>0.7096685209635252</v>
+        <v>0.6257628500656687</v>
       </c>
       <c r="P14" t="n">
-        <v>67.53859237726908</v>
+        <v>68.04189847155246</v>
       </c>
       <c r="Q14" t="n">
-        <v>107.7614945979197</v>
+        <v>108.2648006922031</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9305722191602267</v>
+        <v>0.9461975783281023</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7509139364557176</v>
+        <v>0.78163138927503</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5344546124110122</v>
+        <v>0.8613595148892121</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9844963863136742</v>
+        <v>0.985556541301576</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8271926792383741</v>
+        <v>0.8939851784968765</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4642638901610998</v>
+        <v>0.3597770414573526</v>
       </c>
       <c r="H15" t="n">
-        <v>1.665639653856478</v>
+        <v>1.460231905412872</v>
       </c>
       <c r="I15" t="n">
-        <v>1.694998060456383</v>
+        <v>1.568642033158946</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1043370072357217</v>
+        <v>0.05614120364450229</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8996675338460521</v>
+        <v>0.8123916184017244</v>
       </c>
       <c r="L15" t="n">
-        <v>0.7965328263175467</v>
+        <v>1.248315662515585</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6813691291518128</v>
+        <v>0.5998141724378915</v>
       </c>
       <c r="N15" t="n">
-        <v>1.185140748906062</v>
+        <v>1.143473124458394</v>
       </c>
       <c r="O15" t="n">
-        <v>0.7103764236083477</v>
+        <v>0.6253495035450807</v>
       </c>
       <c r="P15" t="n">
-        <v>67.53460431925068</v>
+        <v>68.04454153736144</v>
       </c>
       <c r="Q15" t="n">
-        <v>107.7575065399013</v>
+        <v>108.2674437580121</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9304163182418084</v>
+        <v>0.946261843821967</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7501619953490133</v>
+        <v>0.7815395604700222</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5265791659873602</v>
+        <v>0.8606553857576671</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9845287652917372</v>
+        <v>0.9850995876244457</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8244598064474536</v>
+        <v>0.8933494612897879</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4653064003204211</v>
+        <v>0.3593472978039637</v>
       </c>
       <c r="H16" t="n">
-        <v>1.67066788749938</v>
+        <v>1.460845965054792</v>
       </c>
       <c r="I16" t="n">
-        <v>1.723671669451739</v>
+        <v>1.576608873087634</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1041191015437459</v>
+        <v>0.05791736612604662</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9138953854977423</v>
+        <v>0.8172631196068404</v>
       </c>
       <c r="L16" t="n">
-        <v>0.7904968062137988</v>
+        <v>1.248348825871258</v>
       </c>
       <c r="M16" t="n">
-        <v>0.682133711467496</v>
+        <v>0.5994558347401113</v>
       </c>
       <c r="N16" t="n">
-        <v>1.185556484688511</v>
+        <v>1.143301749808088</v>
       </c>
       <c r="O16" t="n">
-        <v>0.7111735557761132</v>
+        <v>0.6249759106696448</v>
       </c>
       <c r="P16" t="n">
-        <v>67.53011832994112</v>
+        <v>68.04693190954652</v>
       </c>
       <c r="Q16" t="n">
-        <v>107.7530205505917</v>
+        <v>108.2698341301971</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9302433119724839</v>
+        <v>0.9463193035083252</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7494005369830647</v>
+        <v>0.7814436724910296</v>
       </c>
       <c r="D17" t="n">
-        <v>0.518699948931129</v>
+        <v>0.8599496219421425</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9845220609249344</v>
+        <v>0.9846377387451495</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8217003543738101</v>
+        <v>0.8927112957571851</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4664632940400142</v>
+        <v>0.3589630646167091</v>
       </c>
       <c r="H17" t="n">
-        <v>1.675759763098671</v>
+        <v>1.461487168411838</v>
       </c>
       <c r="I17" t="n">
-        <v>1.752359006893513</v>
+        <v>1.584594208580581</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1041642209321522</v>
+        <v>0.05971255608206343</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9282616139128326</v>
+        <v>0.8221533823313222</v>
       </c>
       <c r="L17" t="n">
-        <v>0.7845228817140821</v>
+        <v>1.24842839859087</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6829811813220144</v>
+        <v>0.5991352640403577</v>
       </c>
       <c r="N17" t="n">
-        <v>1.186017834740043</v>
+        <v>1.1431485239778</v>
       </c>
       <c r="O17" t="n">
-        <v>0.7120571041768428</v>
+        <v>0.6246416926115298</v>
       </c>
       <c r="P17" t="n">
-        <v>67.52515189104068</v>
+        <v>68.04907155972562</v>
       </c>
       <c r="Q17" t="n">
-        <v>107.7480541116913</v>
+        <v>108.2719737803762</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9300538190631091</v>
+        <v>0.9463699873003499</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7486301082047495</v>
+        <v>0.7813436826033975</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5108184929497875</v>
+        <v>0.8592418441506475</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9844778799999635</v>
+        <v>0.9841712652194975</v>
       </c>
       <c r="F18" t="n">
-        <v>0.818915897125586</v>
+        <v>0.8920704705038781</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4677304339975376</v>
+        <v>0.358624141866062</v>
       </c>
       <c r="H18" t="n">
-        <v>1.680911623886763</v>
+        <v>1.462155801250846</v>
       </c>
       <c r="I18" t="n">
-        <v>1.781054496008186</v>
+        <v>1.592602331121326</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1044615519661704</v>
+        <v>0.06152572187186495</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9427580239871783</v>
+        <v>0.8270640264965955</v>
       </c>
       <c r="L18" t="n">
-        <v>0.7786071231390131</v>
+        <v>1.248547149149789</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6839082058270229</v>
+        <v>0.5988523539788935</v>
       </c>
       <c r="N18" t="n">
-        <v>1.186523149165042</v>
+        <v>1.143013367199067</v>
       </c>
       <c r="O18" t="n">
-        <v>0.7130235940342349</v>
+        <v>0.6243467384830444</v>
       </c>
       <c r="P18" t="n">
-        <v>67.51972628949103</v>
+        <v>68.05096079505638</v>
       </c>
       <c r="Q18" t="n">
-        <v>107.7426285101417</v>
+        <v>108.273863015707</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9298484178991421</v>
+        <v>0.946414008366421</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7478510605317361</v>
+        <v>0.7812398271021235</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5029360687798874</v>
+        <v>0.8585321334021006</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9843975213777174</v>
+        <v>0.9837002894200085</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8161077185352127</v>
+        <v>0.8914270763782749</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4691039525267708</v>
+        <v>0.3583297727945465</v>
       </c>
       <c r="H19" t="n">
-        <v>1.686121119263389</v>
+        <v>1.462850283466075</v>
       </c>
       <c r="I19" t="n">
-        <v>1.809753510187811</v>
+        <v>1.600632324024667</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1050023535057584</v>
+        <v>0.06335638783787974</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9573779318467847</v>
+        <v>0.8319943559312732</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7727479245651974</v>
+        <v>1.248712275321408</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6849116384810312</v>
+        <v>0.5986065258536248</v>
       </c>
       <c r="N19" t="n">
-        <v>1.187070885602288</v>
+        <v>1.142895977689544</v>
       </c>
       <c r="O19" t="n">
-        <v>0.7140697448937162</v>
+        <v>0.6240904449455489</v>
       </c>
       <c r="P19" t="n">
-        <v>67.5138617758347</v>
+        <v>68.05260312705032</v>
       </c>
       <c r="Q19" t="n">
-        <v>107.7367639964853</v>
+        <v>108.2755053477009</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9296276490102464</v>
+        <v>0.9464514320516207</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7470639501038783</v>
+        <v>0.7811320292438093</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4950550541273557</v>
+        <v>0.8578201308304636</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9842822069524552</v>
+        <v>0.9832249420385815</v>
       </c>
       <c r="F20" t="n">
-        <v>0.813277439762136</v>
+        <v>0.8907808815925601</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4705802351033637</v>
+        <v>0.3580795204392953</v>
       </c>
       <c r="H20" t="n">
-        <v>1.691384530318784</v>
+        <v>1.463571128240985</v>
       </c>
       <c r="I20" t="n">
-        <v>1.838447392474242</v>
+        <v>1.608688247665546</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1057784023848387</v>
+        <v>0.06520404598540441</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9721128974295405</v>
+        <v>0.8369461468254752</v>
       </c>
       <c r="L20" t="n">
-        <v>0.7669486502249748</v>
+        <v>1.248914480729526</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6859885094543229</v>
+        <v>0.5983974602547167</v>
       </c>
       <c r="N20" t="n">
-        <v>1.187659602639343</v>
+        <v>1.142796181195678</v>
       </c>
       <c r="O20" t="n">
-        <v>0.7151924604937712</v>
+        <v>0.6238724789912697</v>
       </c>
       <c r="P20" t="n">
-        <v>67.50757760585248</v>
+        <v>68.05400038623048</v>
       </c>
       <c r="Q20" t="n">
-        <v>107.7304798265031</v>
+        <v>108.2769026068811</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9293920729585623</v>
+        <v>0.9464823204449304</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7462691293437109</v>
+        <v>0.7810204257513823</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4871764002117617</v>
+        <v>0.8571054664425366</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9841333606773466</v>
+        <v>0.9827454099581959</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8104263137646851</v>
+        <v>0.890131660395385</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4721555332457031</v>
+        <v>0.3578729696110057</v>
       </c>
       <c r="H21" t="n">
-        <v>1.696699500401837</v>
+        <v>1.464317421308732</v>
       </c>
       <c r="I21" t="n">
-        <v>1.867132679584699</v>
+        <v>1.616774288316718</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1067801156110081</v>
+        <v>0.06706796990702922</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9869563975978536</v>
+        <v>0.8419211291118738</v>
       </c>
       <c r="L21" t="n">
-        <v>0.761207122278266</v>
+        <v>1.249161427302086</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6871357458651842</v>
+        <v>0.5982248487074118</v>
       </c>
       <c r="N21" t="n">
-        <v>1.188287805443834</v>
+        <v>1.142713812146852</v>
       </c>
       <c r="O21" t="n">
-        <v>0.7163885371337496</v>
+        <v>0.6236925190130408</v>
       </c>
       <c r="P21" t="n">
-        <v>67.50089365617576</v>
+        <v>68.05515437807709</v>
       </c>
       <c r="Q21" t="n">
-        <v>107.7237958768264</v>
+        <v>108.2780565987277</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9291422250041148</v>
+        <v>0.9465066897930192</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7454670764987497</v>
+        <v>0.7809050727180413</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4793023758411479</v>
+        <v>0.8563878457498351</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9839521102123544</v>
+        <v>0.9822619601937574</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8075558627174563</v>
+        <v>0.8894792630999206</v>
       </c>
       <c r="G22" t="n">
-        <v>0.473826267667538</v>
+        <v>0.3577100116681254</v>
       </c>
       <c r="H22" t="n">
-        <v>1.702062831469206</v>
+        <v>1.465088787573835</v>
       </c>
       <c r="I22" t="n">
-        <v>1.895801111045908</v>
+        <v>1.62489377795596</v>
       </c>
       <c r="J22" t="n">
-        <v>0.107999904200945</v>
+        <v>0.0689471217254361</v>
       </c>
       <c r="K22" t="n">
-        <v>1.001900507623426</v>
+        <v>0.8469204498406978</v>
       </c>
       <c r="L22" t="n">
-        <v>0.7555198045499886</v>
+        <v>1.249447139295012</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6883503959957734</v>
+        <v>0.5980886319502532</v>
       </c>
       <c r="N22" t="n">
-        <v>1.188954066655694</v>
+        <v>1.142648827218615</v>
       </c>
       <c r="O22" t="n">
-        <v>0.7176548974350704</v>
+        <v>0.6235505032265224</v>
       </c>
       <c r="P22" t="n">
-        <v>67.49382909676302</v>
+        <v>68.05606528820191</v>
       </c>
       <c r="Q22" t="n">
-        <v>107.7167313174136</v>
+        <v>108.2789675088525</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9288785265270342</v>
+        <v>0.9465245190075229</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7446581931110841</v>
+        <v>0.7807859744467507</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4714340478758839</v>
+        <v>0.85566700821842</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9837396250582797</v>
+        <v>0.9817747209747791</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8046672155541352</v>
+        <v>0.8888235298877638</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4755896205979958</v>
+        <v>0.3575907876286438</v>
       </c>
       <c r="H23" t="n">
-        <v>1.707471838407091</v>
+        <v>1.465885198262352</v>
       </c>
       <c r="I23" t="n">
-        <v>1.924448802540022</v>
+        <v>1.633049664383741</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1094298975887269</v>
+        <v>0.0708410030171268</v>
       </c>
       <c r="K23" t="n">
-        <v>1.016939350064374</v>
+        <v>0.851945333700434</v>
       </c>
       <c r="L23" t="n">
-        <v>0.7498877285991473</v>
+        <v>1.249777911852529</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6896300606832593</v>
+        <v>0.5979889527647178</v>
       </c>
       <c r="N23" t="n">
-        <v>1.189657262594576</v>
+        <v>1.142601282646606</v>
       </c>
       <c r="O23" t="n">
-        <v>0.7189890400975736</v>
+        <v>0.6234465804916944</v>
       </c>
       <c r="P23" t="n">
-        <v>67.48639987641876</v>
+        <v>68.05673199535896</v>
       </c>
       <c r="Q23" t="n">
-        <v>107.7093020970694</v>
+        <v>108.2796342160096</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9286016973526179</v>
+        <v>0.9465360401459801</v>
       </c>
       <c r="C24" t="n">
-        <v>0.743842899040811</v>
+        <v>0.7806632076309588</v>
       </c>
       <c r="D24" t="n">
-        <v>0.46357353888581</v>
+        <v>0.8549429222429675</v>
       </c>
       <c r="E24" t="n">
-        <v>0.983497101966082</v>
+        <v>0.9812838963515162</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8017618879700444</v>
+        <v>0.8881644891772127</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4774407785619987</v>
+        <v>0.35751374572273</v>
       </c>
       <c r="H24" t="n">
-        <v>1.712923713609092</v>
+        <v>1.466706140524842</v>
       </c>
       <c r="I24" t="n">
-        <v>1.95306802603051</v>
+        <v>1.641242305197195</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1110620418189321</v>
+        <v>0.07274882064610935</v>
       </c>
       <c r="K24" t="n">
-        <v>1.032065033924721</v>
+        <v>0.8569955629216521</v>
       </c>
       <c r="L24" t="n">
-        <v>0.7443121323879472</v>
+        <v>1.250147247246027</v>
       </c>
       <c r="M24" t="n">
-        <v>0.690970895596912</v>
+        <v>0.5979245317953846</v>
       </c>
       <c r="N24" t="n">
-        <v>1.190395473726352</v>
+        <v>1.14257055961072</v>
       </c>
       <c r="O24" t="n">
-        <v>0.7203869571294114</v>
+        <v>0.623379416988327</v>
       </c>
       <c r="P24" t="n">
-        <v>67.47863030141377</v>
+        <v>68.05716293602634</v>
       </c>
       <c r="Q24" t="n">
-        <v>107.7015325220644</v>
+        <v>108.280065156677</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9283119430883158</v>
+        <v>0.9465412428719735</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7430215097873908</v>
+        <v>0.7805368206216257</v>
       </c>
       <c r="D25" t="n">
-        <v>0.455721318411117</v>
+        <v>0.8542153657527001</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9832256079053417</v>
+        <v>0.9807895382206945</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7988407337652642</v>
+        <v>0.8875019901859491</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4793783666615821</v>
+        <v>0.3574789550700558</v>
       </c>
       <c r="H25" t="n">
-        <v>1.718416347328863</v>
+        <v>1.467551291038211</v>
       </c>
       <c r="I25" t="n">
-        <v>1.981657071974686</v>
+        <v>1.649474213006946</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1128891563454561</v>
+        <v>0.0746703728916813</v>
       </c>
       <c r="K25" t="n">
-        <v>1.047273114160071</v>
+        <v>0.8620722929493138</v>
       </c>
       <c r="L25" t="n">
-        <v>0.7387932618035471</v>
+        <v>1.250555090881987</v>
       </c>
       <c r="M25" t="n">
-        <v>0.6923715524641246</v>
+        <v>0.5978954382415506</v>
       </c>
       <c r="N25" t="n">
-        <v>1.191168151764491</v>
+        <v>1.142556685674737</v>
       </c>
       <c r="O25" t="n">
-        <v>0.7218472428592208</v>
+        <v>0.6233490848616743</v>
       </c>
       <c r="P25" t="n">
-        <v>67.47053016772485</v>
+        <v>68.05735757103541</v>
       </c>
       <c r="Q25" t="n">
-        <v>107.6934323883755</v>
+        <v>108.280259791686</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.928009889065293</v>
+        <v>0.946540122820462</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7421944709709503</v>
+        <v>0.7804068740861172</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4478796420251033</v>
+        <v>0.8534838998316369</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9829263231605819</v>
+        <v>0.9802919370605332</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7959053044995366</v>
+        <v>0.8868357825539227</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4813982033043661</v>
+        <v>0.3574864448596712</v>
       </c>
       <c r="H26" t="n">
-        <v>1.723946759702564</v>
+        <v>1.468420244119506</v>
       </c>
       <c r="I26" t="n">
-        <v>2.01020772808548</v>
+        <v>1.6577503539097</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1149032980295391</v>
+        <v>0.07660453067546759</v>
       </c>
       <c r="K26" t="n">
-        <v>1.06255551305751</v>
+        <v>0.8671774422925839</v>
       </c>
       <c r="L26" t="n">
-        <v>0.7333266683071633</v>
+        <v>1.251005184603579</v>
       </c>
       <c r="M26" t="n">
-        <v>0.6938286555802996</v>
+        <v>0.5979017016698239</v>
       </c>
       <c r="N26" t="n">
-        <v>1.191973629159219</v>
+        <v>1.142559672478768</v>
       </c>
       <c r="O26" t="n">
-        <v>0.7233663778716706</v>
+        <v>0.6233556149370563</v>
       </c>
       <c r="P26" t="n">
-        <v>67.46212097174073</v>
+        <v>68.05731566808673</v>
       </c>
       <c r="Q26" t="n">
-        <v>107.6850231923914</v>
+        <v>108.2802178887374</v>
       </c>
     </row>
   </sheetData>
